--- a/AutomationPreparationCheckList.xlsx
+++ b/AutomationPreparationCheckList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Documents\Automation Preparation Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6255E2AD-CEFD-41E0-AB15-2620DC0358E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9FBE86-CDC6-4972-A6AB-B1DABF0FD736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3CCAF854-E22B-436D-9697-CE01B48B84E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3CCAF854-E22B-436D-9697-CE01B48B84E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="2" r:id="rId1"/>
@@ -37,26 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="189">
   <si>
     <t>Topics</t>
   </si>
   <si>
-    <t>UI Automation with Selenium Webdriver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xpath </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Framework Design </t>
-  </si>
-  <si>
-    <t>TestNG</t>
-  </si>
-  <si>
-    <t>Dependency Management with Maven/ Gradle</t>
-  </si>
-  <si>
     <t>Extent Reporting</t>
   </si>
   <si>
@@ -69,21 +54,12 @@
     <t>Live Project with framework</t>
   </si>
   <si>
-    <t>Collections</t>
-  </si>
-  <si>
     <t>Exception Handling</t>
   </si>
   <si>
     <t>String Manipulation</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>OOPS</t>
-  </si>
-  <si>
     <t>Logging with Log4j</t>
   </si>
   <si>
@@ -132,27 +108,9 @@
     <t>API Automation with Rest Assured</t>
   </si>
   <si>
-    <t>CI/CD Pipeline</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>Docker</t>
-  </si>
-  <si>
     <t>JUnit</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Kubernetes</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -160,6 +118,492 @@
   </si>
   <si>
     <t>Cucumber Jvm</t>
+  </si>
+  <si>
+    <t>Data Types and Variables</t>
+  </si>
+  <si>
+    <t>String Class</t>
+  </si>
+  <si>
+    <t>Arithmetic Operators &amp; Concatenation operators</t>
+  </si>
+  <si>
+    <t>Conditional &amp; Decision Making</t>
+  </si>
+  <si>
+    <t>Single Dimensional Array</t>
+  </si>
+  <si>
+    <t>Loops (For, While)</t>
+  </si>
+  <si>
+    <t>Classes and Objects</t>
+  </si>
+  <si>
+    <t>Class Constructors</t>
+  </si>
+  <si>
+    <t>Functions in Java</t>
+  </si>
+  <si>
+    <t>Function Input Parameters</t>
+  </si>
+  <si>
+    <t>Function Return Types</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Data Hiding</t>
+  </si>
+  <si>
+    <t>Method Overloading</t>
+  </si>
+  <si>
+    <t>Method Overriding</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Super/This Keywords</t>
+  </si>
+  <si>
+    <t>Final/Finally/Finalize Keywords</t>
+  </si>
+  <si>
+    <t>Wrapper Classes</t>
+  </si>
+  <si>
+    <t>Collections Basics (Array List, HashMap, Set)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Architecture of WebDriver</t>
+  </si>
+  <si>
+    <t>WebDriver Interface</t>
+  </si>
+  <si>
+    <t>WebElement Interface</t>
+  </si>
+  <si>
+    <t>Launching Firefox/Chrome/Safari</t>
+  </si>
+  <si>
+    <t>How to Open a URL</t>
+  </si>
+  <si>
+    <t>Verify Page title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy to get the Page Source </t>
+  </si>
+  <si>
+    <t>Difference between Close &amp; Quit</t>
+  </si>
+  <si>
+    <t>Ways to Navigate Back &amp; Forward</t>
+  </si>
+  <si>
+    <t>How to Refresh Page</t>
+  </si>
+  <si>
+    <t>Another way of Navigating to specific Page</t>
+  </si>
+  <si>
+    <t>Difference between FindElement &amp; FindElements</t>
+  </si>
+  <si>
+    <t>Element Inspector in Mozilla, Chrome and IE</t>
+  </si>
+  <si>
+    <t>Identify table rows and columns</t>
+  </si>
+  <si>
+    <t>Implicit and Explicit waits</t>
+  </si>
+  <si>
+    <t>What is Action Class &amp; What can we do with Action Class</t>
+  </si>
+  <si>
+    <t>What is Browser Profile</t>
+  </si>
+  <si>
+    <t>What is TestNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is Automation Framework</t>
+  </si>
+  <si>
+    <t>Introduction and Component of Frameworks</t>
+  </si>
+  <si>
+    <t>Normal library JAR</t>
+  </si>
+  <si>
+    <t>Runnable JAR</t>
+  </si>
+  <si>
+    <t>Run JAR with Command Line Arguments</t>
+  </si>
+  <si>
+    <t>How to add generic JAR as a build path in your Java Project</t>
+  </si>
+  <si>
+    <t>How to add generic JAR as maven dependency in POM.xml in your Maven Project</t>
+  </si>
+  <si>
+    <t>How to create libraries with FAT Jars</t>
+  </si>
+  <si>
+    <t>Jenkins Setup Basics</t>
+  </si>
+  <si>
+    <t>Running Script via Jenkins</t>
+  </si>
+  <si>
+    <t>Jenkins PipleLine – Classic View</t>
+  </si>
+  <si>
+    <t>Jenkins PileLine – Blue Ocean</t>
+  </si>
+  <si>
+    <t>Jenkins PipeLine Syntax</t>
+  </si>
+  <si>
+    <t>Jenkins Report Generation using Extent Report, Allure, TestNG Report and Tesults Report</t>
+  </si>
+  <si>
+    <t>Git WebHook with NgRok to trigger the build automatically</t>
+  </si>
+  <si>
+    <t>GIT Repo/GIT HUB</t>
+  </si>
+  <si>
+    <t>Learn how to use commit command</t>
+  </si>
+  <si>
+    <t>What is cloning in GIT</t>
+  </si>
+  <si>
+    <t>My First Code Check-in to GIT</t>
+  </si>
+  <si>
+    <t>GIT PULL Request Process</t>
+  </si>
+  <si>
+    <t>GIT CheckOut</t>
+  </si>
+  <si>
+    <t>GIT Branching</t>
+  </si>
+  <si>
+    <t>GIT Merge</t>
+  </si>
+  <si>
+    <t>GIT Commit</t>
+  </si>
+  <si>
+    <t>GIT ADD</t>
+  </si>
+  <si>
+    <t>GIT Push, Fetch &amp; Pull Commands</t>
+  </si>
+  <si>
+    <t>GIT Clean</t>
+  </si>
+  <si>
+    <t>Centralized Version Control System vs Distributed Verison Control System</t>
+  </si>
+  <si>
+    <t>What is Docker</t>
+  </si>
+  <si>
+    <t>What is Docker Container</t>
+  </si>
+  <si>
+    <t>How to create account on Docker Hub</t>
+  </si>
+  <si>
+    <t>Selenium Grid Configuration on Docker Hub</t>
+  </si>
+  <si>
+    <t>Run your test cases on Dockerized Selenium Grid Hub – Node setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Infrastructure using Docker Compose yml </t>
+  </si>
+  <si>
+    <t>Scale up the browsers at the run time</t>
+  </si>
+  <si>
+    <t>Shut down the Docker Infrastructure</t>
+  </si>
+  <si>
+    <t>Zalenium – Docker Setup</t>
+  </si>
+  <si>
+    <t>Zalenium Live Preview</t>
+  </si>
+  <si>
+    <t>Zalenium Test Dashboard</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Setup Account</t>
+  </si>
+  <si>
+    <t>Create new EC2 Instance on AWS</t>
+  </si>
+  <si>
+    <t>Create AMI, Security Group, VPC and Subnets</t>
+  </si>
+  <si>
+    <t>Selenium Dockerized GRID Setup on AWS – EC2 machine</t>
+  </si>
+  <si>
+    <t>Run Selenium test cases on AWS machine</t>
+  </si>
+  <si>
+    <t>Enter &amp; Clear text from Input field</t>
+  </si>
+  <si>
+    <t>How Click action works differently on different elements</t>
+  </si>
+  <si>
+    <t>Managing Input fields, Buttons &amp; Links</t>
+  </si>
+  <si>
+    <t>Finding all links on the Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracting More than one object from a page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracting Objects from a specific area of a web page </t>
+  </si>
+  <si>
+    <t>Check if element is Present, Displayed, Enabled or Selected</t>
+  </si>
+  <si>
+    <t>What are locators</t>
+  </si>
+  <si>
+    <t>HTML Basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML language tags and attributes </t>
+  </si>
+  <si>
+    <t>ID, Name, Xpath, CSS etc</t>
+  </si>
+  <si>
+    <t>Difference between Absolute &amp; Complete Xpath</t>
+  </si>
+  <si>
+    <t>Finding your first element</t>
+  </si>
+  <si>
+    <t>WebElement Commands</t>
+  </si>
+  <si>
+    <t>Element locator tool for FF</t>
+  </si>
+  <si>
+    <t>Various HTML locator strategies</t>
+  </si>
+  <si>
+    <t>XPath Helper Plug-in for Chrome</t>
+  </si>
+  <si>
+    <t>Selection of Effective XPath</t>
+  </si>
+  <si>
+    <t>Handling Dynamic objects/ids on the page</t>
+  </si>
+  <si>
+    <t>Extracting values from a cell</t>
+  </si>
+  <si>
+    <t>Dynamically Identify Tables Data</t>
+  </si>
+  <si>
+    <t>Select class in Selenium</t>
+  </si>
+  <si>
+    <t>Drop Down Handle</t>
+  </si>
+  <si>
+    <t>Select multiple values from the list</t>
+  </si>
+  <si>
+    <t>Select &amp; Deselect operations by Index, Value &amp; Visible Text</t>
+  </si>
+  <si>
+    <t>How to use Expected Conditions with Waits</t>
+  </si>
+  <si>
+    <t>PageLoadTimeout &amp; SetScriptTimeout property</t>
+  </si>
+  <si>
+    <t>Simple use of Thread Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept of Fluent Wait in Selenium </t>
+  </si>
+  <si>
+    <t>Strategy to poll for an object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebDriverWait and its uses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different WaitUntil Conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Ajax based components </t>
+  </si>
+  <si>
+    <t>Ways to handle Simple, Confirmation &amp; Prompt Alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concepts of Set Interface in Java </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between Window Handle &amp; Handles </t>
+  </si>
+  <si>
+    <t>Switching &amp; Closing Windows, Tabs &amp; PopUps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept of window ID </t>
+  </si>
+  <si>
+    <t>Extracting window IDs with Selenium Object reference</t>
+  </si>
+  <si>
+    <t>Mouse Hover &amp; Mouse Movement with Action</t>
+  </si>
+  <si>
+    <t>Finding Coordinates of a Web Object</t>
+  </si>
+  <si>
+    <t>Drag and Drop Action</t>
+  </si>
+  <si>
+    <t>How to set up ChromeOptions and Firefox Options</t>
+  </si>
+  <si>
+    <t>Benefits and Features of TestNG</t>
+  </si>
+  <si>
+    <t>How to download TestNG</t>
+  </si>
+  <si>
+    <t>Annotations in TestNg</t>
+  </si>
+  <si>
+    <t>How to run Test Suite in TestNG</t>
+  </si>
+  <si>
+    <t>Groups in TestNG</t>
+  </si>
+  <si>
+    <t>Depend On in TestNG</t>
+  </si>
+  <si>
+    <t>Test Case sequencing in TestNG</t>
+  </si>
+  <si>
+    <t>TestNG Reporters</t>
+  </si>
+  <si>
+    <t>TestNG Assets</t>
+  </si>
+  <si>
+    <t>TestNG Parameters</t>
+  </si>
+  <si>
+    <t>Multi Browser testing in TestNG</t>
+  </si>
+  <si>
+    <t>Parallel testing in TestNG</t>
+  </si>
+  <si>
+    <t>Features of Automation Framework</t>
+  </si>
+  <si>
+    <t>Benefits of using Automation Framework</t>
+  </si>
+  <si>
+    <t>Different types of Automation Framework</t>
+  </si>
+  <si>
+    <t>What is Data Driven Framework</t>
+  </si>
+  <si>
+    <t>What is Hybrid Framework</t>
+  </si>
+  <si>
+    <t>Designing Test Data Provider (Excel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing Run Data Provider (Text/Property file) </t>
+  </si>
+  <si>
+    <t>Setting up Maven Build Tool</t>
+  </si>
+  <si>
+    <t>Data Provider Design</t>
+  </si>
+  <si>
+    <t>Creating Page Objects &amp; Object repository</t>
+  </si>
+  <si>
+    <t>Writing Test Script and Fetching Test Data</t>
+  </si>
+  <si>
+    <t>Designing Test Runner for Framework</t>
+  </si>
+  <si>
+    <t>Asserts, Test Fails &amp; Error logging</t>
+  </si>
+  <si>
+    <t>Reporters, TestNG Listeners and Log file Generation</t>
+  </si>
+  <si>
+    <t>Running test with different Test Data</t>
+  </si>
+  <si>
+    <t>Generating the HTML reports : Extent Report, Allure Report, Emailable Report and PDF Report</t>
+  </si>
+  <si>
+    <t>Generating web portal reports sing T-Esults (new web reporting tool)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -511,15 +955,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC3EC52-94E2-4E7C-9D19-9333BEE4F479}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575BD4B-E1D0-4C8C-9BF8-9DB9D4F772FB}">
+  <dimension ref="A1:C106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -529,110 +1133,533 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E575BD4B-E1D0-4C8C-9BF8-9DB9D4F772FB}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279B5FA6-461B-4C89-86F2-A10B34DD8DC4}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,84 +1681,90 @@
     <col min="1" max="1" width="74.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -741,50 +1774,211 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E36CAF-4E0B-46C4-957E-92968DF46C53}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -794,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F533FB85-DF89-4E01-A527-93831CCDD148}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,19 +1999,25 @@
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
